--- a/Phase3 Initial Data.xlsx
+++ b/Phase3 Initial Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxie/OD/OneDrive - Georgia Institute of Technology/GT/CS Major/TA4400/CS 4400 Spring 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlinyang/Desktop/ATL_Beltline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7A5AEE-A349-1142-AB80-9B4CC1B4596C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="28040" windowHeight="16040" activeTab="4" xr2:uid="{5B6F0D4A-931C-A04D-9FAA-0CB21355322C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -25,9 +24,15 @@
     <sheet name="VisitEvent" sheetId="9" r:id="rId10"/>
     <sheet name="VisitSite" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -547,7 +552,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -927,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32581EF8-2F70-154B-8D63-878374C99036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B66B289-9CB0-C648-8E53-6C8E798F07EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1654,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F35DA-418B-EA40-9EDB-5C816265FC2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1839,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7152C6-969B-FA4A-B15D-5FF4A032E91F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2046,36 +2051,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2C41BFE3-8F18-AB4B-9D80-B18157A10FFD}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{02757719-3C39-F542-8E6B-F4364BA0D936}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A3745873-8BF0-7A45-8858-23816B1B29B4}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{77EDD476-64D7-A546-9C58-E818EA98ED8A}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{09F7AE62-D292-AD43-BCEA-B8EF2B76B334}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{ED756C9E-D79A-C545-BDE4-197E666AC758}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{E838F3F2-A04C-2A48-B8C9-DBE63202B4A4}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{30D046D8-430F-514E-9992-C745F186BE0A}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{1EFE0186-0BBC-9842-BD81-C786FC588CE3}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{5074E0F2-F378-A442-A68B-BC3768E945A6}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{8968B6D7-E0A5-6347-ACD0-872C057ED144}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{48320FF6-4387-E041-94E6-725512002971}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{524C219E-74E2-3E49-A492-B5487B0D8420}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{023BDDC1-6C9C-EA44-A1F3-AC848D0F1025}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{E542E393-9B82-444A-98D5-04117E080DC1}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{45B65ECD-C1B0-5D46-AC0A-9C1FBBF8ABDB}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{E85CC9CB-DB72-3A48-82DA-5E89421713AE}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{17E05F11-5BD8-BA41-8442-F6C7DCB24EF0}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{AA726697-073C-594B-B8BE-69120EA885C0}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{D8FF8131-AC6D-EA4F-AE12-A2AEAC60238A}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{3043D993-4538-8440-9E50-48A57DAE9E54}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{D5C2BD53-0C7F-1D45-B75E-4B72D9CD22A5}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{1FBA6EBD-AA3F-7541-AF66-A92104A8DF1C}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA623627-C65A-1B45-9303-FFF56DFA7F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2472,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C34B0-6C4F-F746-AEE7-F20BA31C55E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2592,10 +2597,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0C171-D924-124B-B6C4-3DED29F5A92D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
@@ -2941,7 +2946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16ABC39-BE20-234E-8683-D1AF6DE31F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3006,7 +3011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA9B11B-3D40-DF47-AE48-DA5E4877BF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5F53BF-09F7-DC49-8562-451C9D68A7DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3308,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884991A-33C3-F045-A7D1-02E3CB4FB35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
